--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -16,52 +16,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
-    <t>Real Madrid CF - Celta de Vigo</t>
-  </si>
-  <si>
-    <t>12/09/2021</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>Real Madrid CF - RCD Mallorca</t>
   </si>
   <si>
     <t>22/09/2021</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Villarreal CF</t>
+  </si>
+  <si>
+    <t>25/09/2021</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - FC Sheriff Tiraspol</t>
+  </si>
+  <si>
+    <t>28/09/2021</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Athletic Club de Bilbao</t>
+  </si>
+  <si>
+    <t>17/10/2021</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
-    <t>Real Madrid CF - Villarreal CF</t>
-  </si>
-  <si>
-    <t>25/09/2021</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - FC Sheriff Tiraspol</t>
-  </si>
-  <si>
-    <t>28/09/2021</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Athletic Club de Bilbao</t>
-  </si>
-  <si>
-    <t>17/10/2021</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Osasuna</t>
   </si>
   <si>
     <t>27/10/2021</t>
   </si>
   <si>
-    <t>55</t>
+    <t>57</t>
   </si>
   <si>
     <t>Real Madrid CF - FC Shakhtar Donetsk</t>
@@ -70,16 +67,13 @@
     <t>03/11/2021</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Rayo Vallecano</t>
   </si>
   <si>
     <t>07/11/2021</t>
   </si>
   <si>
-    <t>38</t>
+    <t>59</t>
   </si>
   <si>
     <t>Real Madrid CF - Sevilla FC</t>
@@ -88,7 +82,7 @@
     <t>28/11/2021</t>
   </si>
   <si>
-    <t>46</t>
+    <t>37</t>
   </si>
   <si>
     <t>Real Madrid CF - Inter Milan</t>
@@ -97,7 +91,13 @@
     <t>07/12/2021</t>
   </si>
   <si>
-    <t>47</t>
+    <t>Real Madrid CF - Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>12/12/2021</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
 </sst>
 </file>
@@ -465,73 +465,73 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Real Madrid CF - RCD Mallorca</t>
   </si>
@@ -22,82 +22,85 @@
     <t>22/09/2021</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Villarreal CF</t>
+  </si>
+  <si>
+    <t>25/09/2021</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - FC Sheriff Tiraspol</t>
+  </si>
+  <si>
+    <t>28/09/2021</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Athletic Club de Bilbao</t>
+  </si>
+  <si>
+    <t>17/10/2021</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Osasuna</t>
+  </si>
+  <si>
+    <t>27/10/2021</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
-    <t>Real Madrid CF - Villarreal CF</t>
-  </si>
-  <si>
-    <t>25/09/2021</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - FC Sheriff Tiraspol</t>
-  </si>
-  <si>
-    <t>28/09/2021</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Athletic Club de Bilbao</t>
-  </si>
-  <si>
-    <t>17/10/2021</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Osasuna</t>
-  </si>
-  <si>
-    <t>27/10/2021</t>
+    <t>Real Madrid CF - FC Shakhtar Donetsk</t>
+  </si>
+  <si>
+    <t>03/11/2021</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>07/11/2021</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Sevilla FC</t>
+  </si>
+  <si>
+    <t>28/11/2021</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Inter Milan</t>
+  </si>
+  <si>
+    <t>07/12/2021</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>Real Madrid CF - FC Shakhtar Donetsk</t>
-  </si>
-  <si>
-    <t>03/11/2021</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>07/11/2021</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Sevilla FC</t>
-  </si>
-  <si>
-    <t>28/11/2021</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Inter Milan</t>
-  </si>
-  <si>
-    <t>07/12/2021</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Atlético de Madrid</t>
   </si>
   <si>
     <t>12/12/2021</t>
   </si>
   <si>
-    <t>54</t>
+    <t>35</t>
   </si>
 </sst>
 </file>
@@ -498,29 +501,29 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -531,18 +534,18 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Real Madrid CF - RCD Mallorca</t>
   </si>
@@ -22,7 +22,7 @@
     <t>22/09/2021</t>
   </si>
   <si>
-    <t>42</t>
+    <t>36</t>
   </si>
   <si>
     <t>Real Madrid CF - Villarreal CF</t>
@@ -31,76 +31,73 @@
     <t>25/09/2021</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - FC Sheriff Tiraspol</t>
+  </si>
+  <si>
+    <t>28/09/2021</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Athletic Club de Bilbao</t>
+  </si>
+  <si>
+    <t>17/10/2021</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Osasuna</t>
+  </si>
+  <si>
+    <t>27/10/2021</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - FC Shakhtar Donetsk</t>
+  </si>
+  <si>
+    <t>03/11/2021</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>07/11/2021</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Sevilla FC</t>
+  </si>
+  <si>
+    <t>28/11/2021</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Inter Milan</t>
+  </si>
+  <si>
+    <t>07/12/2021</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>12/12/2021</t>
+  </si>
+  <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - FC Sheriff Tiraspol</t>
-  </si>
-  <si>
-    <t>28/09/2021</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Athletic Club de Bilbao</t>
-  </si>
-  <si>
-    <t>17/10/2021</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Osasuna</t>
-  </si>
-  <si>
-    <t>27/10/2021</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - FC Shakhtar Donetsk</t>
-  </si>
-  <si>
-    <t>03/11/2021</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>07/11/2021</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Sevilla FC</t>
-  </si>
-  <si>
-    <t>28/11/2021</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Inter Milan</t>
-  </si>
-  <si>
-    <t>07/12/2021</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Atlético de Madrid</t>
-  </si>
-  <si>
-    <t>12/12/2021</t>
-  </si>
-  <si>
-    <t>35</t>
   </si>
 </sst>
 </file>
@@ -490,62 +487,62 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Real Madrid CF - RCD Mallorca</t>
   </si>
@@ -22,36 +22,24 @@
     <t>22/09/2021</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Villarreal CF</t>
   </si>
   <si>
     <t>25/09/2021</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>Real Madrid CF - FC Sheriff Tiraspol</t>
   </si>
   <si>
     <t>28/09/2021</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Athletic Club de Bilbao</t>
   </si>
   <si>
     <t>17/10/2021</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Osasuna</t>
   </si>
   <si>
@@ -70,34 +58,22 @@
     <t>07/11/2021</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Sevilla FC</t>
   </si>
   <si>
     <t>28/11/2021</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Inter Milan</t>
   </si>
   <si>
     <t>07/12/2021</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Atlético de Madrid</t>
   </si>
   <si>
     <t>12/12/2021</t>
-  </si>
-  <si>
-    <t>45</t>
   </si>
 </sst>
 </file>
@@ -429,120 +405,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -16,24 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Real Madrid CF - RCD Mallorca</t>
-  </si>
-  <si>
-    <t>22/09/2021</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Villarreal CF</t>
-  </si>
-  <si>
-    <t>25/09/2021</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - FC Sheriff Tiraspol</t>
-  </si>
-  <si>
-    <t>28/09/2021</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Athletic Club de Bilbao</t>
   </si>
   <si>
@@ -74,6 +56,24 @@
   </si>
   <si>
     <t>12/12/2021</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Cadiz CF</t>
+  </si>
+  <si>
+    <t>19/12/2021</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Valencia CF</t>
+  </si>
+  <si>
+    <t>09/01/2022</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Elche CF</t>
+  </si>
+  <si>
+    <t>23/01/2022</t>
   </si>
 </sst>
 </file>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Real Madrid CF - Athletic Club de Bilbao</t>
-  </si>
-  <si>
-    <t>17/10/2021</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Osasuna</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>23/01/2022</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Granada CF</t>
+  </si>
+  <si>
+    <t>06/02/2022</t>
   </si>
 </sst>
 </file>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Real Madrid CF - Osasuna</t>
-  </si>
-  <si>
-    <t>27/10/2021</t>
-  </si>
-  <si>
     <t>Real Madrid CF - FC Shakhtar Donetsk</t>
   </si>
   <si>
@@ -31,7 +25,7 @@
     <t>Real Madrid CF - Rayo Vallecano</t>
   </si>
   <si>
-    <t>07/11/2021</t>
+    <t>06/11/2021</t>
   </si>
   <si>
     <t>Real Madrid CF - Sevilla FC</t>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>06/02/2022</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>20/02/2022</t>
   </si>
 </sst>
 </file>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -16,22 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Real Madrid CF - FC Shakhtar Donetsk</t>
-  </si>
-  <si>
-    <t>03/11/2021</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>06/11/2021</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Sevilla FC</t>
-  </si>
-  <si>
-    <t>28/11/2021</t>
+    <t>Real Madrid CF - Athletic Club de Bilbao</t>
+  </si>
+  <si>
+    <t>01/12/2021</t>
   </si>
   <si>
     <t>Real Madrid CF - Inter Milan</t>
@@ -74,6 +62,18 @@
   </si>
   <si>
     <t>20/02/2022</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Real Sociedad</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - FC Barcelona</t>
+  </si>
+  <si>
+    <t>20/03/2022</t>
   </si>
 </sst>
 </file>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Real Madrid CF - Athletic Club de Bilbao</t>
-  </si>
-  <si>
-    <t>01/12/2021</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Inter Milan</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>20/03/2022</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Getafe CF</t>
+  </si>
+  <si>
+    <t>10/04/2022</t>
   </si>
 </sst>
 </file>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -16,18 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Real Madrid CF - Inter Milan</t>
-  </si>
-  <si>
-    <t>07/12/2021</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Atlético de Madrid</t>
-  </si>
-  <si>
-    <t>12/12/2021</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Cadiz CF</t>
   </si>
   <si>
@@ -74,6 +62,18 @@
   </si>
   <si>
     <t>10/04/2022</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - RCD Espanyol</t>
+  </si>
+  <si>
+    <t>01/05/2022</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - UD Levante</t>
+  </si>
+  <si>
+    <t>11/05/2022</t>
   </si>
 </sst>
 </file>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -52,6 +52,12 @@
     <t>06/03/2022</t>
   </si>
   <si>
+    <t>Real Madrid CF - Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>09/03/2022</t>
+  </si>
+  <si>
     <t>Real Madrid CF - FC Barcelona</t>
   </si>
   <si>
@@ -68,12 +74,6 @@
   </si>
   <si>
     <t>01/05/2022</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - UD Levante</t>
-  </si>
-  <si>
-    <t>11/05/2022</t>
   </si>
 </sst>
 </file>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -16,16 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Real Madrid CF - Cadiz CF</t>
-  </si>
-  <si>
-    <t>19/12/2021</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Valencia CF</t>
   </si>
   <si>
-    <t>09/01/2022</t>
+    <t>08/01/2022</t>
   </si>
   <si>
     <t>Real Madrid CF - Elche CF</t>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>01/05/2022</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - UD Levante</t>
+  </si>
+  <si>
+    <t>11/05/2022</t>
   </si>
 </sst>
 </file>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Real Madrid CF - Valencia CF</t>
-  </si>
-  <si>
-    <t>08/01/2022</t>
-  </si>
-  <si>
     <t>Real Madrid CF - Elche CF</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>11/05/2022</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Real Betis Balompié</t>
+  </si>
+  <si>
+    <t>22/05/2022</t>
   </si>
 </sst>
 </file>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Real Madrid CF - Elche CF</t>
-  </si>
-  <si>
-    <t>23/01/2022</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Real Madrid CF - Granada CF</t>
   </si>
@@ -31,7 +25,7 @@
     <t>Real Madrid CF - Deportivo Alavés</t>
   </si>
   <si>
-    <t>20/02/2022</t>
+    <t>19/02/2022</t>
   </si>
   <si>
     <t>Real Madrid CF - Real Sociedad</t>
@@ -405,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,14 +477,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -14,60 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Real Madrid CF - Granada CF</t>
-  </si>
-  <si>
-    <t>06/02/2022</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Deportivo Alavés</t>
-  </si>
-  <si>
-    <t>19/02/2022</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Real Sociedad</t>
-  </si>
-  <si>
-    <t>06/03/2022</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Paris Saint-Germain</t>
-  </si>
-  <si>
-    <t>09/03/2022</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - FC Barcelona</t>
-  </si>
-  <si>
-    <t>20/03/2022</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - Getafe CF</t>
-  </si>
-  <si>
-    <t>10/04/2022</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - RCD Espanyol</t>
-  </si>
-  <si>
-    <t>01/05/2022</t>
-  </si>
-  <si>
-    <t>Real Madrid CF - UD Levante</t>
-  </si>
-  <si>
-    <t>11/05/2022</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Real Madrid CF - Real Betis Balompié</t>
   </si>
   <si>
-    <t>22/05/2022</t>
+    <t>20/05/2022</t>
   </si>
 </sst>
 </file>
@@ -399,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,70 +365,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/RealMadrid.xlsx
+++ b/fixture/RealMadrid.xlsx
@@ -14,12 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Real Madrid CF - Real Betis Balompié</t>
-  </si>
-  <si>
-    <t>20/05/2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Real Madrid CF - Getafe CF</t>
+  </si>
+  <si>
+    <t>03/09/2023</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Real Sociedad</t>
+  </si>
+  <si>
+    <t>17/09/2023</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - UD Las Palmas</t>
+  </si>
+  <si>
+    <t>27/09/2023</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Osasuna</t>
+  </si>
+  <si>
+    <t>08/10/2023</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Valencia CF</t>
+  </si>
+  <si>
+    <t>12/11/2023</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Granada CF</t>
+  </si>
+  <si>
+    <t>03/12/2023</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - Villarreal CF</t>
+  </si>
+  <si>
+    <t>17/12/2023</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - RCD Mallorca</t>
+  </si>
+  <si>
+    <t>03/01/2024</t>
+  </si>
+  <si>
+    <t>Real Madrid CF - UD Almeria</t>
+  </si>
+  <si>
+    <t>21/01/2024</t>
   </si>
 </sst>
 </file>
@@ -351,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,6 +419,78 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
